--- a/configTools/Luban/ConfigRoot/Datas/draw_box.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/draw_box.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="11805" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="draw_box" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="draw_banner" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="draw_box" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="draw_banner" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
   </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1014,8 +1014,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="总览"/>
       <sheetName val="全局资产数值框架"/>
@@ -1482,7 +1482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2554,12 +2554,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2900,6 +2900,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/configTools/Luban/ConfigRoot/Datas/draw_box.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/draw_box.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="11805" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="draw_box" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="draw_banner" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="draw_box" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="draw_banner" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1014,8 +1014,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="总览"/>
       <sheetName val="全局资产数值框架"/>

--- a/configTools/Luban/ConfigRoot/Datas/draw_box.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/draw_box.xlsx
@@ -1482,7 +1482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2554,12 +2554,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2900,6 +2900,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>